--- a/hangul.xlsx
+++ b/hangul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polson\Documents\Projects\Github\pie-logographs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A1E567-DCE8-4DBF-A218-08312AC3A2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC60E0-B724-4C88-808A-FACCE52BD3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="45" windowWidth="18240" windowHeight="28440" xr2:uid="{FDF2DF6C-E858-4A5D-848A-80E72C365AEE}"/>
   </bookViews>
@@ -357,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -422,6 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,7 +746,7 @@
   <dimension ref="A2:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +864,7 @@
       <c r="L4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="9" t="s">
         <v>53</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -892,7 +899,7 @@
       <c r="L5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -983,7 +990,7 @@
       <c r="L8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -1014,7 +1021,7 @@
         <v>44</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="N9" s="4" t="s">
@@ -1120,7 +1127,7 @@
         <v>51</v>
       </c>
       <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="9" t="s">
         <v>89</v>
       </c>
       <c r="O12" s="4" t="s">
